--- a/Documentation/Test Cases.xlsx
+++ b/Documentation/Test Cases.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="hneo9mEyzzDKUjyxIlSDQnd1RIy628Xg6EvElejCQ0k="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="85Stpa3pdw0LIfkZfRuj/EEVLoeedNepT/anWT8qynU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="205">
   <si>
     <t>Project Name:</t>
   </si>
@@ -613,6 +613,33 @@
   </si>
   <si>
     <t>Unlike a post</t>
+  </si>
+  <si>
+    <t>test_case_</t>
+  </si>
+  <si>
+    <t>Delete post</t>
+  </si>
+  <si>
+    <t>Delete a post that belongs to you</t>
+  </si>
+  <si>
+    <t>Delete a post that belongs to you will delete ir successfully</t>
+  </si>
+  <si>
+    <t>Post deleted</t>
+  </si>
+  <si>
+    <t>11/24/2023</t>
+  </si>
+  <si>
+    <t>Go to "my posts"</t>
+  </si>
+  <si>
+    <t>Click on delete button</t>
+  </si>
+  <si>
+    <t>Click on "Yes"</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1521,7 @@
     <xdr:ext cx="295275" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1522,7 +1549,7 @@
     <xdr:ext cx="361950" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1578,7 +1605,7 @@
     <xdr:ext cx="714375" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1606,7 +1633,7 @@
     <xdr:ext cx="571500" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image8.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1634,7 +1661,7 @@
     <xdr:ext cx="381000" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image7.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1662,7 +1689,7 @@
     <xdr:ext cx="400050" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1723,7 +1750,7 @@
     <xdr:ext cx="428625" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image18.png"/>
+        <xdr:cNvPr id="0" name="image9.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1751,7 +1778,7 @@
     <xdr:ext cx="295275" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png"/>
+        <xdr:cNvPr id="0" name="image10.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1779,7 +1806,7 @@
     <xdr:ext cx="323850" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png"/>
+        <xdr:cNvPr id="0" name="image11.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1807,7 +1834,7 @@
     <xdr:ext cx="323850" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.png"/>
+        <xdr:cNvPr id="0" name="image15.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1835,7 +1862,7 @@
     <xdr:ext cx="323850" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png"/>
+        <xdr:cNvPr id="0" name="image13.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1863,7 +1890,7 @@
     <xdr:ext cx="428625" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png"/>
+        <xdr:cNvPr id="0" name="image12.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1891,7 +1918,7 @@
     <xdr:ext cx="752475" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png"/>
+        <xdr:cNvPr id="0" name="image18.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1919,7 +1946,7 @@
     <xdr:ext cx="457200" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.png"/>
+        <xdr:cNvPr id="0" name="image14.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1947,7 +1974,7 @@
     <xdr:ext cx="438150" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png"/>
+        <xdr:cNvPr id="0" name="image16.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1975,7 +2002,7 @@
     <xdr:ext cx="438150" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.png"/>
+        <xdr:cNvPr id="0" name="image21.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2003,7 +2030,7 @@
     <xdr:ext cx="895350" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image19.png"/>
+        <xdr:cNvPr id="0" name="image17.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2031,7 +2058,7 @@
     <xdr:ext cx="495300" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image22.png"/>
+        <xdr:cNvPr id="0" name="image20.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2059,7 +2086,7 @@
     <xdr:ext cx="647700" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image21.png"/>
+        <xdr:cNvPr id="0" name="image19.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2087,11 +2114,39 @@
     <xdr:ext cx="638175" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image20.png"/>
+        <xdr:cNvPr id="0" name="image22.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="457200" cy="200025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image23.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5783,18 +5838,144 @@
       <c r="L102" s="53"/>
       <c r="M102" s="53"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="B103" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C103" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="D103" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="E103" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="F103" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G103" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="H103" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="I103" s="128" t="s">
+        <v>201</v>
+      </c>
+      <c r="J103" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="K103" s="129" t="s">
+        <v>8</v>
+      </c>
+      <c r="L103" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M103" s="41"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="42"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="F104" s="101" t="s">
+        <v>202</v>
+      </c>
+      <c r="G104" s="147"/>
+      <c r="H104" s="43"/>
+      <c r="I104" s="43"/>
+      <c r="J104" s="43"/>
+      <c r="K104" s="43"/>
+      <c r="L104" s="43"/>
+      <c r="M104" s="43"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="42"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="F105" s="101" t="s">
+        <v>203</v>
+      </c>
+      <c r="G105" s="49"/>
+      <c r="H105" s="43"/>
+      <c r="I105" s="43"/>
+      <c r="J105" s="43"/>
+      <c r="K105" s="43"/>
+      <c r="L105" s="43"/>
+      <c r="M105" s="43"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="42"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="F106" s="101" t="s">
+        <v>204</v>
+      </c>
+      <c r="G106" s="49"/>
+      <c r="H106" s="43"/>
+      <c r="I106" s="43"/>
+      <c r="J106" s="43"/>
+      <c r="K106" s="43"/>
+      <c r="L106" s="43"/>
+      <c r="M106" s="43"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="42"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="47"/>
+      <c r="F107" s="50"/>
+      <c r="G107" s="51"/>
+      <c r="H107" s="43"/>
+      <c r="I107" s="43"/>
+      <c r="J107" s="43"/>
+      <c r="K107" s="43"/>
+      <c r="L107" s="43"/>
+      <c r="M107" s="43"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="52"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="53"/>
+      <c r="D108" s="53"/>
+      <c r="E108" s="47"/>
+      <c r="F108" s="54"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="53"/>
+      <c r="I108" s="53"/>
+      <c r="J108" s="53"/>
+      <c r="K108" s="53"/>
+      <c r="L108" s="53"/>
+      <c r="M108" s="53"/>
+    </row>
     <row r="109" ht="15.75" customHeight="1"/>
     <row r="110" ht="15.75" customHeight="1"/>
     <row r="111" ht="15.75" customHeight="1"/>
     <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="153">
+  <mergeCells count="163">
     <mergeCell ref="K72:K78"/>
     <mergeCell ref="L72:L78"/>
     <mergeCell ref="M72:M78"/>
@@ -5861,6 +6042,26 @@
     <mergeCell ref="K10:K15"/>
     <mergeCell ref="L10:L15"/>
     <mergeCell ref="M10:M15"/>
+    <mergeCell ref="K16:K22"/>
+    <mergeCell ref="L16:L22"/>
+    <mergeCell ref="M16:M22"/>
+    <mergeCell ref="K103:K108"/>
+    <mergeCell ref="L103:L108"/>
+    <mergeCell ref="M103:M108"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="I16:I22"/>
+    <mergeCell ref="J16:J22"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="C103:C108"/>
+    <mergeCell ref="D103:D108"/>
+    <mergeCell ref="H103:H108"/>
+    <mergeCell ref="I103:I108"/>
+    <mergeCell ref="J103:J108"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="A10:A15"/>
@@ -5868,16 +6069,6 @@
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="D10:D15"/>
     <mergeCell ref="H10:H15"/>
-    <mergeCell ref="K16:K22"/>
-    <mergeCell ref="L16:L22"/>
-    <mergeCell ref="M16:M22"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="D16:D22"/>
-    <mergeCell ref="H16:H22"/>
-    <mergeCell ref="I16:I22"/>
-    <mergeCell ref="J16:J22"/>
     <mergeCell ref="K23:K29"/>
     <mergeCell ref="L23:L29"/>
     <mergeCell ref="M23:M29"/>
